--- a/excels/Aventuras/Trad GoS.xlsx
+++ b/excels/Aventuras/Trad GoS.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Aventuras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAB6BAE-F530-4F46-904E-5316DCCEF845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disease" sheetId="4" r:id="rId1"/>
+    <sheet name="vehicle" sheetId="5" r:id="rId2"/>
+    <sheet name="vehicleUpgrade" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>name Español: GoS-ES</t>
   </si>
@@ -32,12 +40,96 @@
   </si>
   <si>
     <t>Caragrana</t>
+  </si>
+  <si>
+    <t>Galley</t>
+  </si>
+  <si>
+    <t>Keelboat</t>
+  </si>
+  <si>
+    <t>Longship</t>
+  </si>
+  <si>
+    <t>Rowboat</t>
+  </si>
+  <si>
+    <t>Sailing Ship</t>
+  </si>
+  <si>
+    <t>Warship</t>
+  </si>
+  <si>
+    <t>Arcane Artillery</t>
+  </si>
+  <si>
+    <t>Bones of Endless Toil</t>
+  </si>
+  <si>
+    <t>Churning Hull</t>
+  </si>
+  <si>
+    <t>Clockwork Oars</t>
+  </si>
+  <si>
+    <t>Concussive Rounds</t>
+  </si>
+  <si>
+    <t>Death Vessel</t>
+  </si>
+  <si>
+    <t>Defiant Sails</t>
+  </si>
+  <si>
+    <t>Dragon Sails</t>
+  </si>
+  <si>
+    <t>Ever-Full Sails</t>
+  </si>
+  <si>
+    <t>Explosive Rounds</t>
+  </si>
+  <si>
+    <t>Frost-Locked Hull</t>
+  </si>
+  <si>
+    <t>Grasping Rounds</t>
+  </si>
+  <si>
+    <t>Guardian Figurehead</t>
+  </si>
+  <si>
+    <t>Living Vessel</t>
+  </si>
+  <si>
+    <t>Red Dragon Figurehead</t>
+  </si>
+  <si>
+    <t>Reinforced Hull</t>
+  </si>
+  <si>
+    <t>Screaming Sails</t>
+  </si>
+  <si>
+    <t>Scything Oars</t>
+  </si>
+  <si>
+    <t>Smuggler's Banner</t>
+  </si>
+  <si>
+    <t>Storm Giant Figurehead</t>
+  </si>
+  <si>
+    <t>Taskmaster's Drums</t>
+  </si>
+  <si>
+    <t>Vigilant Watch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,12 +180,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,9 +263,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,20 +507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -407,12 +536,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E9EE65-E4DC-42DD-8D89-7EB6F3D0014E}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C5E967-2F01-4E36-8235-AD203FDD30C5}">
+  <dimension ref="B1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
